--- a/shipin/功能模块清单 个人端小程序.xlsx
+++ b/shipin/功能模块清单 个人端小程序.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/www/shipin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/www/blog/shipin/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35060" yWindow="-1180" windowWidth="15480" windowHeight="17540"/>
+    <workbookView xWindow="-35060" yWindow="460" windowWidth="15680" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="个人端小程序" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>视聘专区</t>
   </si>
@@ -123,26 +123,6 @@
   </si>
   <si>
     <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,32 +261,32 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,7 +605,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -655,8 +635,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -666,13 +646,11 @@
       <c r="E2" s="5">
         <v>43585</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,12 +660,12 @@
       <c r="E3" s="5">
         <v>43589</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -696,40 +674,34 @@
       <c r="E4" s="4">
         <v>43585</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="4">
         <v>43585</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="4">
         <v>43585</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -742,13 +714,11 @@
       <c r="E7" s="4">
         <v>43585</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -762,8 +732,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -775,8 +745,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -784,13 +754,11 @@
       <c r="E10" s="5">
         <v>43595</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,8 +768,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -813,8 +781,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,13 +790,11 @@
       <c r="E13" s="4">
         <v>43585</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,13 +802,11 @@
       <c r="E14" s="4">
         <v>43585</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -850,11 +814,11 @@
       <c r="E15" s="5">
         <v>43589</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -864,7 +828,7 @@
       <c r="E16" s="4">
         <v>43585</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/shipin/功能模块清单 个人端小程序.xlsx
+++ b/shipin/功能模块清单 个人端小程序.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35060" yWindow="460" windowWidth="15680" windowHeight="17540"/>
+    <workbookView xWindow="4120" yWindow="460" windowWidth="15680" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="个人端小程序" sheetId="6" r:id="rId1"/>
@@ -261,15 +261,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,11 +285,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +605,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -635,8 +635,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -646,11 +646,11 @@
       <c r="E2" s="5">
         <v>43585</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,12 +660,12 @@
       <c r="E3" s="5">
         <v>43589</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -674,34 +674,34 @@
       <c r="E4" s="4">
         <v>43585</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="4">
         <v>43585</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="4">
         <v>43585</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -714,11 +714,11 @@
       <c r="E7" s="4">
         <v>43585</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -732,8 +732,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -745,8 +745,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,11 +754,11 @@
       <c r="E10" s="5">
         <v>43595</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +768,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -781,8 +781,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
@@ -790,11 +790,11 @@
       <c r="E13" s="4">
         <v>43585</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -802,11 +802,11 @@
       <c r="E14" s="4">
         <v>43585</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -814,11 +814,11 @@
       <c r="E15" s="5">
         <v>43589</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="E16" s="4">
         <v>43585</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/shipin/功能模块清单 个人端小程序.xlsx
+++ b/shipin/功能模块清单 个人端小程序.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="460" windowWidth="15680" windowHeight="17540"/>
+    <workbookView xWindow="-18400" yWindow="-1180" windowWidth="15680" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="个人端小程序" sheetId="6" r:id="rId1"/>
@@ -139,6 +139,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -264,15 +265,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -285,7 +286,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,7 +606,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -646,7 +647,7 @@
       <c r="E2" s="5">
         <v>43585</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
@@ -660,7 +661,7 @@
       <c r="E3" s="5">
         <v>43589</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
@@ -674,7 +675,7 @@
       <c r="E4" s="4">
         <v>43585</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
@@ -686,7 +687,7 @@
       <c r="E5" s="4">
         <v>43585</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
@@ -698,7 +699,7 @@
       <c r="E6" s="4">
         <v>43585</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
@@ -714,7 +715,7 @@
       <c r="E7" s="4">
         <v>43585</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -754,7 +755,7 @@
       <c r="E10" s="5">
         <v>43595</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -766,6 +767,7 @@
       <c r="E11" s="5">
         <v>43595</v>
       </c>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -779,6 +781,7 @@
       <c r="E12" s="4">
         <v>43585</v>
       </c>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
@@ -790,7 +793,7 @@
       <c r="E13" s="4">
         <v>43585</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
@@ -802,7 +805,7 @@
       <c r="E14" s="4">
         <v>43585</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
@@ -828,7 +831,7 @@
       <c r="E16" s="4">
         <v>43585</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/shipin/功能模块清单 个人端小程序.xlsx
+++ b/shipin/功能模块清单 个人端小程序.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-18400" yWindow="-1180" windowWidth="15680" windowHeight="17540"/>
+    <workbookView xWindow="-18400" yWindow="460" windowWidth="15680" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="个人端小程序" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>视聘专区</t>
   </si>
@@ -123,6 +123,32 @@
   </si>
   <si>
     <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需提供接口和做法</t>
+    <rPh sb="0" eb="1">
+      <t>xu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等接口</t>
+    <rPh sb="0" eb="1">
+      <t>deng jie kou</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -171,6 +197,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -262,9 +294,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -274,6 +303,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -286,7 +318,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,7 +638,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -647,7 +679,7 @@
       <c r="E2" s="5">
         <v>43585</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
@@ -661,7 +693,7 @@
       <c r="E3" s="5">
         <v>43589</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
@@ -675,7 +707,7 @@
       <c r="E4" s="4">
         <v>43585</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
@@ -687,7 +719,7 @@
       <c r="E5" s="4">
         <v>43585</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
@@ -699,7 +731,7 @@
       <c r="E6" s="4">
         <v>43585</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
@@ -715,7 +747,7 @@
       <c r="E7" s="4">
         <v>43585</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -730,6 +762,9 @@
       </c>
       <c r="E8" s="5">
         <v>43589</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -744,6 +779,7 @@
       <c r="E9" s="5">
         <v>43589</v>
       </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
@@ -755,7 +791,7 @@
       <c r="E10" s="5">
         <v>43595</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -767,7 +803,7 @@
       <c r="E11" s="5">
         <v>43595</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -781,7 +817,7 @@
       <c r="E12" s="4">
         <v>43585</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
@@ -793,7 +829,7 @@
       <c r="E13" s="4">
         <v>43585</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
@@ -805,7 +841,7 @@
       <c r="E14" s="4">
         <v>43585</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
@@ -817,7 +853,9 @@
       <c r="E15" s="5">
         <v>43589</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
@@ -831,7 +869,7 @@
       <c r="E16" s="4">
         <v>43585</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/shipin/功能模块清单 个人端小程序.xlsx
+++ b/shipin/功能模块清单 个人端小程序.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>视聘专区</t>
   </si>
@@ -123,32 +123,6 @@
   </si>
   <si>
     <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需提供接口和做法</t>
-    <rPh sb="0" eb="1">
-      <t>xu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ti gong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jie kou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>he</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zuo fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等接口</t>
-    <rPh sb="0" eb="1">
-      <t>deng jie kou</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +292,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,7 +612,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -763,9 +737,7 @@
       <c r="E8" s="5">
         <v>43589</v>
       </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
@@ -853,9 +825,7 @@
       <c r="E15" s="5">
         <v>43589</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
